--- a/generated_output.xlsx
+++ b/generated_output.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30150" yWindow="-120" windowWidth="27570" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="31080" yWindow="-120" windowWidth="27570" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet13" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +37,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -46,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -70,22 +77,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,8 +499,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -471,7 +513,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fname</t>
+          <t>Lname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2558,7 +2600,7 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2731,7 +2773,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2815,7 +2856,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3009,7 +3049,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3071,7 +3110,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3089,7 +3127,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3107,7 +3144,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3125,7 +3161,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3275,7 +3310,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3293,7 +3327,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3311,7 +3344,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3329,7 +3361,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3413,7 +3444,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3475,7 +3505,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3625,7 +3654,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3665,7 +3693,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3727,7 +3754,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3855,7 +3881,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3895,7 +3920,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3935,7 +3959,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3953,7 +3976,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4037,7 +4059,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4055,7 +4076,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4073,7 +4093,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4135,7 +4154,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4219,7 +4237,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4237,7 +4254,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4431,7 +4447,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4559,7 +4574,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4621,7 +4635,6 @@
           <t>sample comment1</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4683,7 +4696,6 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4706,6 +4718,4284 @@
           <t>C:\users\johnny\file3.pdf</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>file2upload</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>file2upload</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>lname3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>sample comment1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>C:\users\johnny\file3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Abou Haidar</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
